--- a/biology/Histoire de la zoologie et de la botanique/Russell_Alan_Mittermeier/Russell_Alan_Mittermeier.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Russell_Alan_Mittermeier/Russell_Alan_Mittermeier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Russell Alan Mittermeier, né le 8 novembre 1949 à New York, est un primatologue, herpétologiste et anthropobiologiste américain. Il a écrit plusieurs ouvrages scientifiques comme de vulgarisation et est l'auteur de plus de 300 articles scientifiques.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Russell Alan Mittermeier s'est passionné pour la lecture de la liste rouge de l'UICN et de son premier livre consacré aux mammifères, publié en 1966 sous fome de classeur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Russell Alan Mittermeier s'est passionné pour la lecture de la liste rouge de l'UICN et de son premier livre consacré aux mammifères, publié en 1966 sous fome de classeur.
 Il fut nommé président de l'organisation américaine de protection de la nature Conservation International en 1989.
 Sous sa présidence, cette organisation a repris le concept des « points chauds » de biodiversité, développé depuis 1988 à l'université d'Oxford par l'équipe de Norman Myers, et a décidé de concentrer ses moyens en argent et en temps en priorité sur la conservation de ces hauts lieux de biodiversité.
-De façon complémentaire avec la préservation de ces sites menacés, Mittermeier, avec ses collègues de Conservation International, a aussi introduit d'autres concepts, à savoir les notions de « zones sauvages » de haute biodiversité[2] et de pays de « mégadiversité »[3].
+De façon complémentaire avec la préservation de ces sites menacés, Mittermeier, avec ses collègues de Conservation International, a aussi introduit d'autres concepts, à savoir les notions de « zones sauvages » de haute biodiversité et de pays de « mégadiversité ».
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Russell A. Mittermeier, Cristina Goettsch Mittermeier (ed.), Megadiversity : Earth’s Biologically Wealthiest Nations, Cemex, Mexico, 1997, 501 p.  (ISBN 968-6397-50-7)
 Russell A. Mittermeier, Norman Myers, Jorgen B. Thomsen, Gustavo A. B. Da Fonseca &amp; Silvio Olivieri, "Biodiversity Hotspots and Major Tropical Wilderness Areas : Approaches to Setting Conservation Priorities", Conservation Biology, Vol.12, No.3, 1998, p. 516-520.
@@ -585,13 +601,52 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Quelques espèces décrites
-Acanthochelys macrocephala (Rhodin, Mittermeier &amp; McMorris, 1984)
+          <t>Quelques espèces décrites</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Acanthochelys macrocephala (Rhodin, Mittermeier &amp; McMorris, 1984)
 Ouistiti du Rio Maués, Mico mauesi (Mittermeier et al., 1992)
 Singe titi de Stéphane Nash, Callicebus stephennashi van Roosmalen, van Roosmalen &amp; Mittermeier, 2002
-Titi du Prince Bernhard, Callicebus bernhardi van Roosmalen, van Roosmalen &amp; Mittermeier, 2002
-Taxons dédiés
-Microcèbe de Russell Mittermeier (Microcebus mittermeieri Louis et al., 2006)</t>
+Titi du Prince Bernhard, Callicebus bernhardi van Roosmalen, van Roosmalen &amp; Mittermeier, 2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Russell_Alan_Mittermeier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Russell_Alan_Mittermeier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Taxons dédiés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Microcèbe de Russell Mittermeier (Microcebus mittermeieri Louis et al., 2006)</t>
         </is>
       </c>
     </row>
